--- a/Product Development File/Testing Data/Hall-Effect-Sensitivity-Experiment-Data-Analysis.xlsx
+++ b/Product Development File/Testing Data/Hall-Effect-Sensitivity-Experiment-Data-Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -114,6 +114,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hall Effect Sensor Readings vs. Magnet Distance from Sensor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -534,37 +553,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129277768"/>
-        <c:axId val="-2129275336"/>
+        <c:axId val="2106376824"/>
+        <c:axId val="2106378248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129277768"/>
+        <c:axId val="2106376824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hall Effect Sensor Reading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129275336"/>
+        <c:crossAx val="2106378248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129275336"/>
+        <c:axId val="2106378248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Magnet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance from Hall Effect Sensor (in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129277768"/>
+        <c:crossAx val="2106376824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -595,6 +657,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect Sensor Reading vs. Magnet Distance to Sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -609,12 +695,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'Formated Data'!$A$2:$A$64</c:f>
@@ -1021,37 +1101,80 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122495976"/>
-        <c:axId val="-2122511816"/>
+        <c:axId val="2106448680"/>
+        <c:axId val="2106451576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122495976"/>
+        <c:axId val="2106448680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hall Effect Sensor Reading</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122511816"/>
+        <c:crossAx val="2106451576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122511816"/>
+        <c:axId val="2106451576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Magnet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance to Hall Effect Sensor (in)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122495976"/>
+        <c:crossAx val="2106448680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1072,7 +1195,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1083,7 +1206,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1236,7 +1359,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8558068" cy="5816023"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1263,7 +1386,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8576623" cy="5830455"/>
+    <xdr:ext cx="8572500" cy="5834063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
